--- a/seagrass/initial_datasheets/MarineGEO_Seagrass-Mobile_Epifauna_Datasheet_v0.4.0.xlsx
+++ b/seagrass/initial_datasheets/MarineGEO_Seagrass-Mobile_Epifauna_Datasheet_v0.4.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-epifauna\Fieldsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\seagrass\initial_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18348FA9-9622-4746-B81E-C07815AEE783}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB800297-9963-407B-B5A9-697342DC7549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29055" yWindow="2760" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MobileEpifauna" sheetId="4" r:id="rId1"/>
@@ -659,15 +659,82 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -676,73 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,34 +1129,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="34.5" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="20" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -1166,90 +1166,90 @@
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="20" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="20" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" ht="29.25" customHeight="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -1258,10 +1258,10 @@
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="16" t="s">
         <v>0</v>
       </c>
@@ -1286,16 +1286,16 @@
       <c r="L7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1304,14 +1304,14 @@
       <c r="J8" s="11"/>
       <c r="K8" s="2"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="5"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1320,14 +1320,14 @@
       <c r="J9" s="10"/>
       <c r="K9" s="3"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1336,14 +1336,14 @@
       <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="5"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1352,14 +1352,14 @@
       <c r="J11" s="10"/>
       <c r="K11" s="3"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1368,14 +1368,14 @@
       <c r="J12" s="11"/>
       <c r="K12" s="2"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="5"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1384,14 +1384,14 @@
       <c r="J13" s="10"/>
       <c r="K13" s="3"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="4"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1400,14 +1400,14 @@
       <c r="J14" s="11"/>
       <c r="K14" s="2"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="5"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1416,14 +1416,14 @@
       <c r="J15" s="10"/>
       <c r="K15" s="3"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1432,14 +1432,14 @@
       <c r="J16" s="11"/>
       <c r="K16" s="2"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="5"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1448,14 +1448,14 @@
       <c r="J17" s="10"/>
       <c r="K17" s="3"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="4"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1464,14 +1464,14 @@
       <c r="J18" s="11"/>
       <c r="K18" s="2"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="5"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1480,14 +1480,14 @@
       <c r="J19" s="10"/>
       <c r="K19" s="3"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="4"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1496,14 +1496,14 @@
       <c r="J20" s="11"/>
       <c r="K20" s="2"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="5"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1512,14 +1512,14 @@
       <c r="J21" s="10"/>
       <c r="K21" s="3"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1528,14 +1528,14 @@
       <c r="J22" s="11"/>
       <c r="K22" s="2"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
     </row>
     <row r="23" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="5"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1544,14 +1544,14 @@
       <c r="J23" s="10"/>
       <c r="K23" s="3"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1560,14 +1560,14 @@
       <c r="J24" s="11"/>
       <c r="K24" s="2"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="5"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1576,16 +1576,16 @@
       <c r="J25" s="10"/>
       <c r="K25" s="3"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1594,14 +1594,14 @@
       <c r="J26" s="18"/>
       <c r="K26" s="19"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1610,8 +1610,8 @@
       <c r="J27" s="18"/>
       <c r="K27" s="19"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="17.100000000000001" customHeight="1"/>
     <row r="29" spans="1:14" ht="17.100000000000001" customHeight="1"/>
@@ -1637,6 +1637,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -1653,52 +1692,13 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="96" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter xml:space="preserve">&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
 </oddFooter>
-    <firstFooter>&amp;L&amp;"Helvetica Neue Light,Regular"&amp;11Datasheets available for download at https://marinegeo.github.io/seagrass&amp;R&amp;"Helvetica Neue Light,Regular"&amp;11Page ___ of ___</firstFooter>
+    <firstFooter>&amp;L&amp;"Helvetica Neue Light,Regular"&amp;11https://doi.org/10.25573/serc.14925114.v1</firstFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
